--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\NCAE_2022_S1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\KSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D0FDB6-E35F-4130-84A3-0E8C6446E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01ED6D7-8414-4848-81B9-B63033769870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" tabRatio="901" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -864,9 +864,6 @@
     <t>Gaz ziemny</t>
   </si>
   <si>
-    <t>WIATR</t>
-  </si>
-  <si>
     <t>Energia wiatru</t>
   </si>
   <si>
@@ -1025,6 +1022,9 @@
   </si>
   <si>
     <t>ceny paliw interpolacja i ręcznie</t>
+  </si>
+  <si>
+    <t>WIATR_LAD</t>
   </si>
 </sst>
 </file>
@@ -2128,9 +2128,6 @@
     <xf numFmtId="0" fontId="55" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,9 +2165,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="339">
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3011,21 +3011,21 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:I13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="12.75" customHeight="1"/>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="17.399999999999999">
+    <row r="4" spans="2:9" ht="18">
       <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
@@ -3054,159 +3054,159 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1">
-      <c r="B6" s="37" t="s">
+    <row r="6" spans="2:9" ht="17.45" customHeight="1">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="31.65" customHeight="1" thickBot="1">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:9" ht="31.7" customHeight="1" thickBot="1">
+      <c r="B8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3225,233 +3225,233 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" customHeight="1">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999">
+    <row r="2" spans="1:10" ht="18">
       <c r="A2" s="4"/>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B6" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="B6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="D7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="F7" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="G7" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="H7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="I7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="55" t="s">
+      <c r="J7" s="54" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="E8" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="F8" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="G8" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="H8" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="56" t="s">
+      <c r="I8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="J8" s="55" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="56" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="E9" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="E12" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3466,18 +3466,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="9" max="11" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -3502,10 +3502,10 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" ht="17.399999999999999">
+    <row r="2" spans="1:21" ht="18">
       <c r="A2" s="7"/>
       <c r="B2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -3537,7 +3537,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="7"/>
       <c r="I3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -3555,7 +3555,7 @@
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="D4" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -3578,22 +3578,22 @@
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>72</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>73</v>
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -3613,22 +3613,22 @@
     <row r="6" spans="1:21" ht="47.25" customHeight="1" thickBot="1">
       <c r="A6" s="7"/>
       <c r="B6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="F6" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>77</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>78</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -3663,11 +3663,11 @@
         <v>15</v>
       </c>
       <c r="G7" s="18"/>
-      <c r="I7" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
+      <c r="I7" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="B8" s="23" t="str">
@@ -3687,9 +3687,9 @@
         <v>7</v>
       </c>
       <c r="G8" s="25"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="B9" s="17" t="str">
@@ -3709,9 +3709,9 @@
         <v>28</v>
       </c>
       <c r="G9" s="18"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="B10" s="23" t="str">
@@ -3731,9 +3731,9 @@
         <v>30</v>
       </c>
       <c r="G10" s="25"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="B11" s="17" t="str">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D11" s="21" t="str">
         <f>SEC_Comm!C12</f>
-        <v>WIATR</v>
+        <v>WIATR_LAD</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19">
         <v>0</v>
       </c>
       <c r="G11" s="18"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1">
       <c r="B12" s="27" t="str">
@@ -3775,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="29"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
     </row>
     <row r="14" spans="1:21">
       <c r="I14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3796,19 +3796,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5afccfb316e386c8eb4d223203331793">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a428d0c8a0f553102038a8370edf77b2" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CEB3EEBE0FC6D6448290DFD506008A29" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="458484c08c05aa2dc066be8a32f6ad95">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ac4f588e-db1b-4d15-903e-57b0b6decf5f" xmlns:ns3="e1dc2528-885f-4c68-9f61-c9c57edc7584" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a314b506e951999bec5448e79df60c0" ns2:_="" ns3:_="">
     <xsd:import namespace="ac4f588e-db1b-4d15-903e-57b0b6decf5f"/>
     <xsd:import namespace="e1dc2528-885f-4c68-9f61-c9c57edc7584"/>
     <xsd:element name="properties">
@@ -4050,15 +4048,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ac4f588e-db1b-4d15-903e-57b0b6decf5f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e1dc2528-885f-4c68-9f61-c9c57edc7584" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF3DD4EF-FE9B-40AC-9F6D-67D0D4A6AD79}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4067,16 +4079,4 @@
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C29A98C-7C30-42A1-BFDB-18D68E9074A4}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>